--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.954000000000001</v>
+        <v>-7.618</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.302</v>
+        <v>-21.399</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.128</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.58</v>
+        <v>-20.828</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.178</v>
+        <v>-21.04</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.592</v>
+        <v>-21.584</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-22.078</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
